--- a/res/excel/statistic_excel_test7.xlsx
+++ b/res/excel/statistic_excel_test7.xlsx
@@ -20,7 +20,7 @@
     <t>RẠP CHIẾU PHIM ANH SÁU</t>
   </si>
   <si>
-    <t>Chủ rạp: Lê Dũng</t>
+    <t>Chủ rạp: Lê Anh Dẽo</t>
   </si>
   <si>
     <t>Địa chỉ: 235 đường Lương Ngọc Quyến, P.Hoàng Văn Thụ, TP.Thái Nguyên, T.Thái Nguyên</t>
@@ -35,7 +35,7 @@
     <t>THỐNG KÊ DOANH SỐ RẠP CHIẾU  THÁNG 06-2021</t>
   </si>
   <si>
-    <t>Tổng doanh thu: 680000</t>
+    <t>Tổng doanh thu: 760000</t>
   </si>
   <si>
     <t>Phim</t>
@@ -151,12 +151,17 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="B13" t="s" s="1">
+      <c r="B15" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="C13" t="s" s="1">
+      <c r="C15" t="s" s="1">
         <v>10</v>
       </c>
     </row>
@@ -198,10 +203,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C19" t="n">
-        <v>240000.0</v>
+        <v>280000.0</v>
       </c>
     </row>
     <row r="20">
@@ -209,10 +214,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C20" t="n">
-        <v>40000.0</v>
+        <v>80000.0</v>
       </c>
     </row>
     <row r="21">
